--- a/emissions_from_pandas - Copy.xlsx
+++ b/emissions_from_pandas - Copy.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Desktop\ENDG 319 CURE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC9615A-AC22-46A7-B868-6C94B0FAFA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29CAD657-4494-4F59-9A61-0B50A42BA828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="0" windowWidth="9750" windowHeight="11355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$H$2:$H$31</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$2:$I$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$H$2:$H$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$I$2:$I$31</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$H$2:$H$31</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$I$2:$I$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="8">
   <si>
     <t>Low Altitude</t>
   </si>
@@ -55,12 +63,15 @@
   <si>
     <t>Max</t>
   </si>
+  <si>
+    <t>Emissions (g/gal)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,13 +84,27 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -109,13 +134,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -132,6 +161,754 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.4</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Particulate Matter (PM) Emissions (in g/gal) for 15 Vehicles Driven at Low and High altitude</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{D86891E7-D129-47CF-9B90-3BAA20701BB7}">
+          <cx:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </cx:spPr>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Emissions (g/gal)</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Emissions (g/gal)</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>347849</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>43049</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C6C57C2-4306-5ECF-CDA6-CAFFAD2C45A9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8243327" y="981355"/>
+              <a:ext cx="4588435" cy="3393608"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -419,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -432,231 +1209,784 @@
     <col min="4" max="4" width="11.76953125" customWidth="1"/>
     <col min="5" max="5" width="12.58984375" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="8" max="8" width="15.76953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A2">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A2" s="1">
         <v>1.5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>7.59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>COUNT(A2:A16)</f>
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>COUNT(B2:B16)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A3">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>A2</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A3" s="1">
         <v>1.48</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2.06</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f>AVERAGE(A2:A16)</f>
         <v>3.7946666666666666</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>AVERAGE(B2:B16)</f>
         <v>6.2946666666666662</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A4">
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I16" si="0">A3</f>
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A4" s="1">
         <v>2.98</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8.86</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f>_xlfn.STDEV.S(A2:A16)</f>
         <v>3.0208013758572325</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>_xlfn.STDEV.S(B2:B16)</f>
         <v>3.8905212039128192</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A5">
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A5" s="1">
         <v>1.4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>8.67</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f>MIN(A2:A16)</f>
         <v>0.25</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <f>MIN(B2:B16)</f>
         <v>1.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A6">
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A6" s="1">
         <v>3.12</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>5.61</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>0.25</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f>_xlfn.QUARTILE.INC(A2:A16,1)</f>
         <v>1.385</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <f>_xlfn.QUARTILE.INC(B2:B16,1)</f>
         <v>3.8049999999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A7">
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A7" s="1">
         <v>0.25</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>6.28</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>0.5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f>_xlfn.QUARTILE.INC(A2:A16,2)</f>
         <v>2.98</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <f>_xlfn.QUARTILE.INC(B2:B16,2)</f>
         <v>6.07</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A8">
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A8" s="1">
         <v>6.73</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4.04</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>0.75</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f>_xlfn.QUARTILE.INC(A2:A16,3)</f>
         <v>6.8450000000000006</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <f>_xlfn.QUARTILE.INC(B2:B16,3)</f>
         <v>8.129999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9">
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A9" s="1">
         <v>5.3</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f>MAX(A2:A16)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <f>MAX(B2:B16)</f>
         <v>17.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10">
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A10" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>9.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11">
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A11" s="1">
         <v>6.96</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12">
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A12" s="1">
         <v>7.21</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>6.07</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13">
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A13" s="1">
         <v>0.87</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>17.11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14">
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A14" s="1">
         <v>1.06</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15">
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A15" s="1">
         <v>7.39</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>2.68</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16">
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A16" s="1">
         <v>1.37</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
+        <v>6.46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <f>B2</f>
+        <v>7.59</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ref="I18:I34" si="1">B3</f>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H21" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H22" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H24" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H26" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>6.07</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H30" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.75">
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
         <v>6.46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="99f5dadd-250d-4939-8bb6-10959418f4c1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010035C31728EE2F384DBB26A75F7DF47AB1" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5850b01526473cec331a6f3a81e7daa0">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="99f5dadd-250d-4939-8bb6-10959418f4c1" xmlns:ns4="4746f3e8-ffda-42c4-9250-f0a8a735e595" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cc20b1880fef5a54d6b148daddf5acc" ns3:_="" ns4:_="">
+    <xsd:import namespace="99f5dadd-250d-4939-8bb6-10959418f4c1"/>
+    <xsd:import namespace="4746f3e8-ffda-42c4-9250-f0a8a735e595"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="99f5dadd-250d-4939-8bb6-10959418f4c1" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="17" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="21" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="22" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="23" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="24" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4746f3e8-ffda-42c4-9250-f0a8a735e595" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{056D6427-9E6A-40F6-9CFA-B87288B98C39}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="99f5dadd-250d-4939-8bb6-10959418f4c1"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="4746f3e8-ffda-42c4-9250-f0a8a735e595"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E782F636-4A66-43AC-8B02-FFA76D8AC677}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A49E9F8E-31EB-431C-A8D1-3DF0799F9A67}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99f5dadd-250d-4939-8bb6-10959418f4c1"/>
+    <ds:schemaRef ds:uri="4746f3e8-ffda-42c4-9250-f0a8a735e595"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>